--- a/biology/Zoologie/Cryptoheros/Cryptoheros.xlsx
+++ b/biology/Zoologie/Cryptoheros/Cryptoheros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoheros est un genre de poissons de la famille des Cichlidae. Ce genre est endémique de l'Amérique centrale et du sud du Mexique. Le genre contient actuellement 9 espèces. Il comprend des espèces auparavant incluses dans le genre Archocentrus[1]. L'espèce appelée communément Cichlasoma nigro a parfois été placée dans le genre Cryptoheros, mais elle est maintenant considérée comme un membre du genre Amatitlania[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoheros est un genre de poissons de la famille des Cichlidae. Ce genre est endémique de l'Amérique centrale et du sud du Mexique. Le genre contient actuellement 9 espèces. Il comprend des espèces auparavant incluses dans le genre Archocentrus. L'espèce appelée communément Cichlasoma nigro a parfois été placée dans le genre Cryptoheros, mais elle est maintenant considérée comme un membre du genre Amatitlania.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fishbase[3],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fishbase, :
 Cryptoheros altoflavus Allgayer, 2001
 Cryptoheros chetumalensis Schmitter-Soto, 2007
 Cryptoheros cutteri (Fowler, 1932)
@@ -524,7 +538,7 @@
 Cryptoheros septemfasciatus (Regan, 1908)
 Cryptoheros spilurus (Günther, 1862)
 et au moins une espèce non encore décrite :
-Cryptoheros sp. Honduras[5] - ou (Cryptoheros sp. "Honduran red point")</t>
+Cryptoheros sp. Honduras - ou (Cryptoheros sp. "Honduran red point")</t>
         </is>
       </c>
     </row>
